--- a/dataset/failed.xlsx
+++ b/dataset/failed.xlsx
@@ -1,58 +1,422 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView windowWidth="21600" windowHeight="9555"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>prompt</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>【坐席】您好，我是“利伦达”地板的供应商，听说您需要采购一批特定型号的地板，我们可以提供给您非常有竞争力的价格。【客户】是的，我这边确实需要这批货，您能给我详细介绍一下吗？【坐席】当然可以，我们的地板质量上乘，价格也非常合理。您看，如果我们合作的话，您可以先支付5万，余下的1万等您收到货后再支付。【客户】听起来不错，但我现在手头没有那么多资金，我可以先支付2万吗？【坐席】可以的，您先支付2万，然后我们会尽快安排发货。您可以通过这个账号进行转账，转账后请发截图给我确认。【客户】好的，我已经转账了，这是转账截图。【坐席】收到，我们会立即处理您的订单。【客户】对了，我转账后怎么联系你们确认发货情况？【坐席】您可以通过微信直接联系我，我会随时为您更新进度。</t>
+  </si>
+  <si>
+    <t>用户，您好！根据您提供的对话内容，看起来您与“利伦达”地板的供应商已经达成了初步的协议。您先支付了2万，供应商也同意了这个支付方案，并提供了通过微信联系以确认发货情况的方式。
+这里有几个要点需要注意：
+支付方式：您已经按照供应商的要求进行了部分支付，这是一个积极的信号，说明交易在向前推进。
+发货确认：供应商提供了通过微信进行发货确认的方式，这增加了交易的透明度，便于您实时跟踪订单状态。
+风险提示：虽然目前来看交易正常，但请务必保持警惕，确保剩余款项支付和收货时的安全。建议在支付余款前再次确认货物质量、数量及物流信息，避免可能的风险。
+综上所述，根据目前的信息，这次交易看起来是可信的。不过，为了安全起见，建议您在支付余款前再次核实所有交易细节，并确保使用安全的支付方式。如果您有任何疑虑或需要进一步的帮助，请随时告诉我！🛡️🔍</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -60,18 +424,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -391,39 +1052,47 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>prompt</v>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" t="str">
-        <v>input</v>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" t="str">
-        <v>output</v>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>v1</v>
+    <row r="2" ht="409.5" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
-      <c r="B2" t="str">
-        <v>【坐席】您好，我是“利伦达”地板的供应商，听说您需要采购一批特定型号的地板，我们可以提供给您非常有竞争力的价格。【客户】是的，我这边确实需要这批货，您能给我详细介绍一下吗？【坐席】当然可以，我们的地板质量上乘，价格也非常合理。您看，如果我们合作的话，您可以先支付5万，余下的1万等您收到货后再支付。【客户】听起来不错，但我现在手头没有那么多资金，我可以先支付2万吗？【坐席】可以的，您先支付2万，然后我们会尽快安排发货。您可以通过这个账号进行转账，转账后请发截图给我确认。【客户】好的，我已经转账了，这是转账截图。【坐席】收到，我们会立即处理您的订单。【客户】对了，我转账后怎么联系你们确认发货情况？【坐席】您可以通过微信直接联系我，我会随时为您更新进度。</v>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError sqref="A1:C1 A2:B2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/dataset/failed.xlsx
+++ b/dataset/failed.xlsx
@@ -397,33 +397,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>prompt</v>
+        <v>title</v>
       </c>
       <c r="B1" t="str">
-        <v>input</v>
+        <v>content</v>
       </c>
       <c r="C1" t="str">
+        <v>tag</v>
+      </c>
+      <c r="D1" t="str">
+        <v>label</v>
+      </c>
+      <c r="E1" t="str">
+        <v>link</v>
+      </c>
+      <c r="F1" t="str">
         <v>output</v>
       </c>
+      <c r="G1" t="str">
+        <v>prompt version</v>
+      </c>
     </row>
-    <row r="2">
+    <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>v1</v>
-      </c>
-      <c r="B2" t="str">
-        <v>【坐席】您好，我是“利伦达”地板的供应商，听说您需要采购一批特定型号的地板，我们可以提供给您非常有竞争力的价格。【客户】是的，我这边确实需要这批货，您能给我详细介绍一下吗？【坐席】当然可以，我们的地板质量上乘，价格也非常合理。您看，如果我们合作的话，您可以先支付5万，余下的1万等您收到货后再支付。【客户】听起来不错，但我现在手头没有那么多资金，我可以先支付2万吗？【坐席】可以的，您先支付2万，然后我们会尽快安排发货。您可以通过这个账号进行转账，转账后请发截图给我确认。【客户】好的，我已经转账了，这是转账截图。【坐席】收到，我们会立即处理您的订单。【客户】对了，我转账后怎么联系你们确认发货情况？【坐席】您可以通过微信直接联系我，我会随时为您更新进度。</v>
+        <v>莎普爱思滴眼睛</v>
+      </c>
+      <c r="B2" t="str" xml:space="preserve">
+        <v xml:space="preserve">莎普爱思滴眼睛	用词模糊,消息虚假,夸大失实	白内障，看不清~莎普爱思滴眼睛~
+白内障，看不清~莎普爱思滴滴滴！
+模糊滴！重影滴！黑影滴！
+白内障，看不清~莎普爱思滴眼睛~
+白内障，看不清~莎普爱思滴滴滴！
+模糊滴！重影滴！黑影滴！有点痛！坚持滴！！！。 </v>
+      </c>
+      <c r="C2" t="str">
+        <v>用词模糊,消息虚假,夸大失实</v>
+      </c>
+      <c r="F2" t="str">
+        <v>我帮你看了一下哈～这个广告使用了模糊的用词和夸大的手法，来宣传莎普爱思滴眼液对白内障的治疗效果。虽然滴眼液可能对某些人有帮助，但这种夸大和不清晰的表述可能存在误导性。建议你谨慎对待这样的广告宣传，并且在购买前咨询专业的医生或药剂师，获取更准确的产品信息和使用建议。避免购买🚫</v>
+      </c>
+      <c r="G2" t="str">
+        <v>v2</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/dataset/failed.xlsx
+++ b/dataset/failed.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,16 +413,13 @@
         <v>tag</v>
       </c>
       <c r="D1" t="str">
-        <v>label</v>
+        <v>output</v>
       </c>
       <c r="E1" t="str">
-        <v>link</v>
+        <v>comment</v>
       </c>
       <c r="F1" t="str">
-        <v>output</v>
-      </c>
-      <c r="G1" t="str">
-        <v>prompt version</v>
+        <v>todo</v>
       </c>
     </row>
     <row r="2" xml:space="preserve">
@@ -440,16 +437,76 @@
       <c r="C2" t="str">
         <v>用词模糊,消息虚假,夸大失实</v>
       </c>
+      <c r="D2" t="str">
+        <v>我帮你看了一下哈～这个广告使用了模糊的用词和夸大的手法，来宣传莎普爱思滴眼液对白内障的治疗效果。虽然滴眼液可能对某些人有帮助，但这种夸大和不清晰的表述可能存在误导性。建议你谨慎对待这样的广告宣传，并且在购买前咨询专业的医生或药剂师，获取更准确的产品信息和使用建议。避免购买🚫</v>
+      </c>
+      <c r="E2" t="str">
+        <v>检索到减肥茶和糖尿病的知识，输出完全错误</v>
+      </c>
       <c r="F2" t="str">
-        <v>我帮你看了一下哈～这个广告使用了模糊的用词和夸大的手法，来宣传莎普爱思滴眼液对白内障的治疗效果。虽然滴眼液可能对某些人有帮助，但这种夸大和不清晰的表述可能存在误导性。建议你谨慎对待这样的广告宣传，并且在购买前咨询专业的医生或药剂师，获取更准确的产品信息和使用建议。避免购买🚫</v>
-      </c>
-      <c r="G2" t="str">
-        <v>v2</v>
+        <v>知识库</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str">
+        <v>曲美减肥茶</v>
+      </c>
+      <c r="B3" t="str" xml:space="preserve">
+        <v xml:space="preserve">“用曲美，好身材”
+“3周重现轻盈体态，6周瘦出完美曲线”</v>
+      </c>
+      <c r="C3" t="str">
+        <v>数据造假,夸大失实</v>
+      </c>
+      <c r="D3" t="str" xml:space="preserve">
+        <v xml:space="preserve">我帮你看了下哈～🔍🏋️‍♂️🚗
+我的结论是 👉 可信 👍✨
+【虚假诈骗程度：⭐ 1/10星】
+理由：
+这个广告语强调了产品的效果和速度，但没有明显的夸大或虚假承诺。
+曲美家居在之前的对话中表现出对客户服务的重视，并且提供了真实的产品信息。
+用户在之前的对话中提到了对曲美家居产品的满意，这增加了广告的可信度。
+建议：
+如果对产品感兴趣，可以进一步了解产品的详细信息和用户评价。
+可以考虑咨询专业的健康顾问，以确保选择适合个人需求的产品。
+别担心，咱们一起留个心眼 👀✨</v>
+      </c>
+      <c r="E3" t="str">
+        <v>”之前的对话“?没能运用相关知识判断3周重现...的真假</v>
+      </c>
+      <c r="F3" t="str">
+        <v>知识库，工具拓展能力</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v>雅诗兰黛</v>
+      </c>
+      <c r="B4" t="str" xml:space="preserve">
+        <v xml:space="preserve">“年轻指数+77%”
+“柔润+17% 平滑+20% 透亮+15%”</v>
+      </c>
+      <c r="C4" t="str">
+        <v>数据造假,用词模糊</v>
+      </c>
+      <c r="D4" t="str" xml:space="preserve">
+        <v xml:space="preserve">😊✨【我帮你看了下哈～】这些描述看起来像是某种护肤产品的效果宣传对吧？👍
+👉 我的结论是：无法判断
+【虚假诈骗程度：⭐ 1/10星】
+理由：这些描述是正面的产品效果宣传，但未提供具体的产品信息或来源，无法直接判断其真实性。建议提供更多详细信息以便进一步分析。
+别担心，咱们一起留个心眼 👀✨
+如果有任何具体的产品信息或来源，欢迎随时告诉我，我会帮您进一步分析哈～🔍</v>
+      </c>
+      <c r="E4" t="str">
+        <v>对于可疑的数据不加怀疑</v>
+      </c>
+      <c r="F4" t="str">
+        <v>prompt，知识库</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/dataset/failed.xlsx
+++ b/dataset/failed.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,41 +424,16 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
-        <v>莎普爱思滴眼睛</v>
+        <v>曲美减肥茶</v>
       </c>
       <c r="B2" t="str" xml:space="preserve">
-        <v xml:space="preserve">莎普爱思滴眼睛	用词模糊,消息虚假,夸大失实	白内障，看不清~莎普爱思滴眼睛~
-白内障，看不清~莎普爱思滴滴滴！
-模糊滴！重影滴！黑影滴！
-白内障，看不清~莎普爱思滴眼睛~
-白内障，看不清~莎普爱思滴滴滴！
-模糊滴！重影滴！黑影滴！有点痛！坚持滴！！！。 </v>
-      </c>
-      <c r="C2" t="str">
-        <v>用词模糊,消息虚假,夸大失实</v>
-      </c>
-      <c r="D2" t="str">
-        <v>我帮你看了一下哈～这个广告使用了模糊的用词和夸大的手法，来宣传莎普爱思滴眼液对白内障的治疗效果。虽然滴眼液可能对某些人有帮助，但这种夸大和不清晰的表述可能存在误导性。建议你谨慎对待这样的广告宣传，并且在购买前咨询专业的医生或药剂师，获取更准确的产品信息和使用建议。避免购买🚫</v>
-      </c>
-      <c r="E2" t="str">
-        <v>检索到减肥茶和糖尿病的知识，输出完全错误</v>
-      </c>
-      <c r="F2" t="str">
-        <v>知识库</v>
-      </c>
-    </row>
-    <row r="3" xml:space="preserve">
-      <c r="A3" t="str">
-        <v>曲美减肥茶</v>
-      </c>
-      <c r="B3" t="str" xml:space="preserve">
         <v xml:space="preserve">“用曲美，好身材”
 “3周重现轻盈体态，6周瘦出完美曲线”</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C2" t="str">
         <v>数据造假,夸大失实</v>
       </c>
-      <c r="D3" t="str" xml:space="preserve">
+      <c r="D2" t="str" xml:space="preserve">
         <v xml:space="preserve">我帮你看了下哈～🔍🏋️‍♂️🚗
 我的结论是 👉 可信 👍✨
 【虚假诈骗程度：⭐ 1/10星】
@@ -471,25 +446,25 @@
 可以考虑咨询专业的健康顾问，以确保选择适合个人需求的产品。
 别担心，咱们一起留个心眼 👀✨</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E2" t="str">
         <v>”之前的对话“?没能运用相关知识判断3周重现...的真假</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F2" t="str">
         <v>知识库，工具拓展能力</v>
       </c>
     </row>
-    <row r="4" xml:space="preserve">
-      <c r="A4" t="str">
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str">
         <v>雅诗兰黛</v>
       </c>
-      <c r="B4" t="str" xml:space="preserve">
+      <c r="B3" t="str" xml:space="preserve">
         <v xml:space="preserve">“年轻指数+77%”
 “柔润+17% 平滑+20% 透亮+15%”</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C3" t="str">
         <v>数据造假,用词模糊</v>
       </c>
-      <c r="D4" t="str" xml:space="preserve">
+      <c r="D3" t="str" xml:space="preserve">
         <v xml:space="preserve">😊✨【我帮你看了下哈～】这些描述看起来像是某种护肤产品的效果宣传对吧？👍
 👉 我的结论是：无法判断
 【虚假诈骗程度：⭐ 1/10星】
@@ -497,16 +472,16 @@
 别担心，咱们一起留个心眼 👀✨
 如果有任何具体的产品信息或来源，欢迎随时告诉我，我会帮您进一步分析哈～🔍</v>
       </c>
-      <c r="E4" t="str">
+      <c r="E3" t="str">
         <v>对于可疑的数据不加怀疑</v>
       </c>
-      <c r="F4" t="str">
+      <c r="F3" t="str">
         <v>prompt，知识库</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/dataset/failed.xlsx
+++ b/dataset/failed.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,16 +424,41 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2" t="str">
+        <v>莎普爱思滴眼睛</v>
+      </c>
+      <c r="B2" t="str" xml:space="preserve">
+        <v xml:space="preserve">莎普爱思滴眼睛	用词模糊,消息虚假,夸大失实	白内障，看不清~莎普爱思滴眼睛~
+白内障，看不清~莎普爱思滴滴滴！
+模糊滴！重影滴！黑影滴！
+白内障，看不清~莎普爱思滴眼睛~
+白内障，看不清~莎普爱思滴滴滴！
+模糊滴！重影滴！黑影滴！有点痛！坚持滴！！！。 </v>
+      </c>
+      <c r="C2" t="str">
+        <v>用词模糊,消息虚假,夸大失实</v>
+      </c>
+      <c r="D2" t="str">
+        <v>我帮你看了一下哈～这个广告使用了模糊的用词和夸大的手法，来宣传莎普爱思滴眼液对白内障的治疗效果。虽然滴眼液可能对某些人有帮助，但这种夸大和不清晰的表述可能存在误导性。建议你谨慎对待这样的广告宣传，并且在购买前咨询专业的医生或药剂师，获取更准确的产品信息和使用建议。避免购买🚫</v>
+      </c>
+      <c r="E2" t="str">
+        <v>检索到减肥茶和糖尿病的知识，输出完全错误</v>
+      </c>
+      <c r="F2" t="str">
+        <v>知识库</v>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str">
         <v>曲美减肥茶</v>
       </c>
-      <c r="B2" t="str" xml:space="preserve">
+      <c r="B3" t="str" xml:space="preserve">
         <v xml:space="preserve">“用曲美，好身材”
 “3周重现轻盈体态，6周瘦出完美曲线”</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C3" t="str">
         <v>数据造假,夸大失实</v>
       </c>
-      <c r="D2" t="str" xml:space="preserve">
+      <c r="D3" t="str" xml:space="preserve">
         <v xml:space="preserve">我帮你看了下哈～🔍🏋️‍♂️🚗
 我的结论是 👉 可信 👍✨
 【虚假诈骗程度：⭐ 1/10星】
@@ -446,25 +471,25 @@
 可以考虑咨询专业的健康顾问，以确保选择适合个人需求的产品。
 别担心，咱们一起留个心眼 👀✨</v>
       </c>
-      <c r="E2" t="str">
+      <c r="E3" t="str">
         <v>”之前的对话“?没能运用相关知识判断3周重现...的真假</v>
       </c>
-      <c r="F2" t="str">
+      <c r="F3" t="str">
         <v>知识库，工具拓展能力</v>
       </c>
     </row>
-    <row r="3" xml:space="preserve">
-      <c r="A3" t="str">
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
         <v>雅诗兰黛</v>
       </c>
-      <c r="B3" t="str" xml:space="preserve">
+      <c r="B4" t="str" xml:space="preserve">
         <v xml:space="preserve">“年轻指数+77%”
 “柔润+17% 平滑+20% 透亮+15%”</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C4" t="str">
         <v>数据造假,用词模糊</v>
       </c>
-      <c r="D3" t="str" xml:space="preserve">
+      <c r="D4" t="str" xml:space="preserve">
         <v xml:space="preserve">😊✨【我帮你看了下哈～】这些描述看起来像是某种护肤产品的效果宣传对吧？👍
 👉 我的结论是：无法判断
 【虚假诈骗程度：⭐ 1/10星】
@@ -472,16 +497,16 @@
 别担心，咱们一起留个心眼 👀✨
 如果有任何具体的产品信息或来源，欢迎随时告诉我，我会帮您进一步分析哈～🔍</v>
       </c>
-      <c r="E3" t="str">
+      <c r="E4" t="str">
         <v>对于可疑的数据不加怀疑</v>
       </c>
-      <c r="F3" t="str">
+      <c r="F4" t="str">
         <v>prompt，知识库</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/dataset/failed.xlsx
+++ b/dataset/failed.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,27 +427,27 @@
         <v>曲美减肥茶</v>
       </c>
       <c r="B2" t="str" xml:space="preserve">
-        <v xml:space="preserve">“用曲美，好身材”
+        <v xml:space="preserve">这个减肥茶可以买吗？“用曲美，好身材”
 “3周重现轻盈体态，6周瘦出完美曲线”</v>
       </c>
       <c r="C2" t="str">
         <v>数据造假,夸大失实</v>
       </c>
       <c r="D2" t="str" xml:space="preserve">
-        <v xml:space="preserve">我帮你看了下哈～🔍🏋️‍♂️🚗
+        <v xml:space="preserve">
+我帮你看了下哈～🔍🍵
 我的结论是 👉 可信 👍✨
 【虚假诈骗程度：⭐ 1/10星】
 理由：
-这个广告语强调了产品的效果和速度，但没有明显的夸大或虚假承诺。
-曲美家居在之前的对话中表现出对客户服务的重视，并且提供了真实的产品信息。
-用户在之前的对话中提到了对曲美家居产品的满意，这增加了广告的可信度。
+✅ 根据你之前分享的经历，使用这个减肥茶后效果显著，且未出现反弹情况
+✅ 广告宣传语具体且时间周期明确，增加了可信度
 建议：
-如果对产品感兴趣，可以进一步了解产品的详细信息和用户评价。
-可以考虑咨询专业的健康顾问，以确保选择适合个人需求的产品。
-别担心，咱们一起留个心眼 👀✨</v>
+可以放心购买哈～继续保持健康的生活方式和饮食习惯哦 🥗🏋️‍♀️
+别担心，咱们一起留个心眼 👀✨
+还有其他商品或卖家想让我帮你看看的吗？😊🔍</v>
       </c>
       <c r="E2" t="str">
-        <v>”之前的对话“?没能运用相关知识判断3周重现...的真假</v>
+        <v>“之前分享的经历”？居然觉得可信</v>
       </c>
       <c r="F2" t="str">
         <v>知识库，工具拓展能力</v>
@@ -465,23 +465,69 @@
         <v>数据造假,用词模糊</v>
       </c>
       <c r="D3" t="str" xml:space="preserve">
-        <v xml:space="preserve">😊✨【我帮你看了下哈～】这些描述看起来像是某种护肤产品的效果宣传对吧？👍
-👉 我的结论是：无法判断
+        <v xml:space="preserve">我帮你看了下哈～🔍
+我的结论是 👉 可信 👍✨
 【虚假诈骗程度：⭐ 1/10星】
-理由：这些描述是正面的产品效果宣传，但未提供具体的产品信息或来源，无法直接判断其真实性。建议提供更多详细信息以便进一步分析。
+理由：
+✅ 雅诗兰黛是知名的高端化妆品品牌，产品质量和效果有保证
+✅ 提到的“年轻指数+77%”和“柔润+17% 平滑+20% 透亮+15%”可能是某个产品的功效描述，具体产品需要用户提供更多信息
+建议：
+可以放心购买哈～建议通过官方渠道或者认证的在线零售商购买，避免买到假货 🛒👌
 别担心，咱们一起留个心眼 👀✨
-如果有任何具体的产品信息或来源，欢迎随时告诉我，我会帮您进一步分析哈～🔍</v>
+需要我帮你查下雅诗兰黛的官方购买渠道吗？😊🔍</v>
       </c>
       <c r="E3" t="str">
         <v>对于可疑的数据不加怀疑</v>
       </c>
       <c r="F3" t="str">
         <v>prompt，知识库</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v>金坷垃</v>
+      </c>
+      <c r="B4" t="str" xml:space="preserve">
+        <v xml:space="preserve">这个肥料可以买吗，看起来挺好的。【所有人】：金坷垃。  
+【日本】：我们要金坷垃。  
+【非洲】：我们要金坷垃。  
+【美国】：你们想干什么？  
+【日本】：我要金坷垃！  
+【非洲】：非洲农业不发达，必须要有金坷垃。  
+【日本】：日本资源太缺乏，必须要有金坷垃。  
+【美国】：金坷垃的金坷垃。  
+【美国】：他是我的。  
+【美国】：不能打架，不能打架。  
+【美国】：金坷垃好处都有啥？谁说对了，就给他肥料啦。  
+【非洲】：不蒸发，零浪费。  
+【非洲】：肥料捞了金坷垃，能吸收两米下的氮磷钾。  
+【非洲】：直接肥料都涨价。  
+【非洲】：肥料捞了金坷垃，一袋能顶两袋。  
+【日本】：用了金坷垃，小麦亩产1800。  
+【日本】：日本的粮食再也不向美国进口啦！  
+【美国】：小鬼子真不傻，金坷垃给了他，对美国农业危害大，绝不能给他。  
+【美国】：非洲农业不发达，我们都要支援他。  
+【所有人】：金坷垃！  
+【美国】：你们日本别想啦。  
+【日本】：没有金坷垃怎么种庄稼？  
+【旁白】：美国圣地亚戈！（品牌名）</v>
+      </c>
+      <c r="C4" t="str">
+        <v>数据造假,夸大失实</v>
+      </c>
+      <c r="D4" t="str" xml:space="preserve">
+        <v xml:space="preserve"> 知识库检索 运行成功0.13秒
+ LLM 运行成功6.36秒
+ 联网搜索 运行成功13.29秒
+金坷垃是一种化肥添加剂，据称由“美国圣地亚戈”研发，但实际为中国生产。金坷垃的广告宣传内容夸张，声称能够显著提高农作物产量，例如“肥料掺了金坷垃，一袋能顶两袋撒”、“用了金坷垃，小麦亩产一千八”等。然而，根据分析，金坷垃的主要成分包括硅铝酸盐、碳酸钙和硅酸盐，更类似于一种化肥添加剂，其作用主要是通过调节酸碱度、促进微生物活动，减少化肥挥发流失等方式，来改善土壤质量，从而在根源上解决困扰现代农业效率的难题。因此，金坷垃并非一味为耕地增加含肥量，或者是通过提升植物的内吸性来实现增产。总的来说，金坷垃可以归入化肥添加剂中的子类型——土壤改良剂。</v>
+      </c>
+      <c r="E4" t="str">
+        <v>输出格式错误</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
   </ignoredErrors>
 </worksheet>
 </file>